--- a/data/trans_camb/P62-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P62-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-11.26871926151707</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-27.10895746692516</v>
+        <v>-27.10895746692517</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>12.0186668270489</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-15.99145017004881</v>
+        <v>-16.45950359339321</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-23.78021008799686</v>
+        <v>-23.41568627421139</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-38.53640647161446</v>
+        <v>-38.4496229927873</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.731342372827977</v>
+        <v>2.384467653315551</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.492582684780149</v>
+        <v>-4.111208656206767</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-13.85325224625959</v>
+        <v>-13.79417570316247</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.592724779791308</v>
+        <v>-1.764245218011129</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-9.490162976200931</v>
+        <v>-9.390273744249884</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-20.92646526227716</v>
+        <v>-21.60265578019384</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.747660532865487</v>
+        <v>8.806232367674303</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4637912505283069</v>
+        <v>1.982893343332734</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-16.07005427798887</v>
+        <v>-15.20193525736699</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21.73410244995688</v>
+        <v>23.08165845087629</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.27953046679883</v>
+        <v>15.56151788601259</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.105713449631557</v>
+        <v>3.418555145878134</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.37839362774889</v>
+        <v>13.93203640503109</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.406231238204783</v>
+        <v>7.152720166075967</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-7.36049824756068</v>
+        <v>-7.143037793956124</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.2297318614815378</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.5526618524403744</v>
+        <v>-0.5526618524403745</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.4889914043683843</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2870594724155429</v>
+        <v>-0.3032461164681921</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4260517505232339</v>
+        <v>-0.4152877263631711</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6930432106896242</v>
+        <v>-0.7005055918720197</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04788745546615235</v>
+        <v>0.08165247518438634</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.148020528513444</v>
+        <v>-0.1340933092645908</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.454748166631909</v>
+        <v>-0.453651338688398</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06760592179729051</v>
+        <v>-0.04612394165724853</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2362398623517838</v>
+        <v>-0.2453344183982037</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5420468720799784</v>
+        <v>-0.5526936923386458</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2210248856917692</v>
+        <v>0.2110110774013968</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.008064223569098937</v>
+        <v>0.05129320507513354</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.3680415154480766</v>
+        <v>-0.3636143518464497</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.078938684663093</v>
+        <v>1.188954377634856</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.802662888368845</v>
+        <v>0.8398420311621866</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1086225017089873</v>
+        <v>0.1863671872960246</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4173661927068406</v>
+        <v>0.4539101039518147</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2075937769242104</v>
+        <v>0.2255196596475397</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.2419824453101549</v>
+        <v>-0.234637456293882</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-10.19905492298835</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-2.858951826075795</v>
+        <v>-2.858951826075806</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.115964014823018</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-24.25285868278798</v>
+        <v>-23.65662099273943</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-18.83268235249269</v>
+        <v>-18.27421806554903</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.45599149504197</v>
+        <v>-12.66403689686164</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.152574549471553</v>
+        <v>-5.199865770085202</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.402747375048963</v>
+        <v>-5.085672108161667</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.16712129906991</v>
+        <v>7.662270237738846</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-9.072652592501813</v>
+        <v>-9.054702615282299</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-7.057246612636246</v>
+        <v>-7.121119034501843</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.388841784832135</v>
+        <v>2.525845049151964</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-6.860871885411266</v>
+        <v>-5.95795814676716</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.422449486205797</v>
+        <v>-1.191387918287352</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.767229083675114</v>
+        <v>7.605161860928932</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.422949398504874</v>
+        <v>7.060054305508404</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.158981717637915</v>
+        <v>7.174180886577984</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>19.18347070239597</v>
+        <v>19.27684183575763</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.598958279580449</v>
+        <v>1.362520054218472</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.236337270841714</v>
+        <v>3.800728850853239</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>13.28475285581547</v>
+        <v>13.47252312753911</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1835388270696677</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.05144875370990642</v>
+        <v>-0.05144875370990662</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.05140060942509533</v>
@@ -974,7 +974,7 @@
         <v>0.04514733356345369</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6090596442393476</v>
+        <v>0.6090596442393478</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1075988496349538</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4065972610073171</v>
+        <v>-0.3921798613898206</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3151046290744751</v>
+        <v>-0.3055361854541911</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2234463208072302</v>
+        <v>-0.2125004301803319</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2029644671958675</v>
+        <v>-0.2170373911954385</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2227542316293119</v>
+        <v>-0.211884382159005</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2420833036729416</v>
+        <v>0.3046725399879052</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2432921814024309</v>
+        <v>-0.2461766325066783</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1895106921584131</v>
+        <v>-0.1851440946265419</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.06191652954766924</v>
+        <v>0.07099469220281229</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1338259627405662</v>
+        <v>-0.1182293917727689</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.03184545270410413</v>
+        <v>-0.02372503946901617</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1588031398846168</v>
+        <v>0.1496112881691433</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4040184924952719</v>
+        <v>0.3717267513505612</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3804806963296467</v>
+        <v>0.3820387952355321</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.016217948611504</v>
+        <v>1.059237643249739</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05360381991803582</v>
+        <v>0.04276671270416483</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1029130136942348</v>
+        <v>0.1262163247534598</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4198588142875557</v>
+        <v>0.4280527398211221</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>2.298416343912724</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>7.275724234828251</v>
+        <v>7.275724234828257</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-17.88113004033483</v>
+        <v>-18.36443978155551</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.88570427447137</v>
+        <v>-15.17432969033843</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-9.498427957357809</v>
+        <v>-10.00035323082271</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.454044567019948</v>
+        <v>-6.554870855836688</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.499289733097266</v>
+        <v>-3.54729983019039</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.348331369145508</v>
+        <v>2.125391826166968</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.86088247245791</v>
+        <v>-7.308927069522028</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.66018645688147</v>
+        <v>-3.79522655632352</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4366621930602129</v>
+        <v>0.4661044457220553</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.114979626071862</v>
+        <v>4.95828964239875</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.466044163630885</v>
+        <v>5.733770143776327</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.2163489335469</v>
+        <v>12.06262611716789</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.472301416336764</v>
+        <v>10.32990441558319</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>12.40378594852072</v>
+        <v>12.76132026786007</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.8133768552656</v>
+        <v>17.41249434124707</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.592765394085284</v>
+        <v>6.156909410959329</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.085781517263923</v>
+        <v>9.832781313147851</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>12.94702167332257</v>
+        <v>14.03573737964742</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.06205256412563321</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1964297486127028</v>
+        <v>0.1964297486127029</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3032851054593149</v>
+        <v>-0.309772482519897</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2720384726442305</v>
+        <v>-0.2581250393527394</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1658271292974511</v>
+        <v>-0.1711261362465092</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.20788982542184</v>
+        <v>-0.2060766363355049</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1471562467774452</v>
+        <v>-0.1195487410904464</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03993172561584772</v>
+        <v>0.06453012259526335</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1916431109963542</v>
+        <v>-0.1770372169006168</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1145201169032883</v>
+        <v>-0.08970581187248432</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.01003788412410974</v>
+        <v>0.006739683322852109</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.08462355008862349</v>
+        <v>0.1082305082068522</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1384309226445467</v>
+        <v>0.1177425459964916</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2862469927026429</v>
+        <v>0.2591849440974946</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3916702960997593</v>
+        <v>0.4343599455365272</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5115922212543789</v>
+        <v>0.5406008581107442</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7316236773334456</v>
+        <v>0.7386636281134268</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1639229783613343</v>
+        <v>0.188011134733445</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2795624614384563</v>
+        <v>0.2958744917193874</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3863949098083886</v>
+        <v>0.415994335719571</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-13.85539454860653</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.923831590496207</v>
+        <v>3.923831590496218</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>8.753805582207674</v>
@@ -1297,7 +1297,7 @@
         <v>-0.3487799889129839</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>8.477559171349508</v>
+        <v>8.477559171349519</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.637472056080893</v>
@@ -1306,7 +1306,7 @@
         <v>-4.206726623725449</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>7.543461114872879</v>
+        <v>7.543461114872891</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-19.55423603842122</v>
+        <v>-17.62792845515262</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-23.93485948356318</v>
+        <v>-23.3070360756625</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.691198579021847</v>
+        <v>-8.698027286609959</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.794973106218029</v>
+        <v>1.001514600671687</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.193873006567696</v>
+        <v>-8.067428101331709</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4877140210689824</v>
+        <v>1.065893734808922</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.593974720059931</v>
+        <v>-2.697068705438078</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-10.30739508440068</v>
+        <v>-10.0556639552871</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8141131918979327</v>
+        <v>0.5373760919353525</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.188308403086488</v>
+        <v>3.226764125031337</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.502377602896522</v>
+        <v>-2.691963931003146</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.82113623944249</v>
+        <v>15.60380962128269</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.63904374112716</v>
+        <v>17.65984400559765</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.004224833317566</v>
+        <v>7.950010906998544</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.92040204800088</v>
+        <v>16.08327007234456</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.73961840273197</v>
+        <v>9.48057018300854</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.88324535595366</v>
+        <v>2.007470592155855</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>14.66564211759048</v>
+        <v>14.72156158305518</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2655686501567828</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.07520873225767655</v>
+        <v>0.07520873225767677</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3177470470014999</v>
@@ -1402,7 +1402,7 @@
         <v>-0.01266007229536473</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3077198102219496</v>
+        <v>0.3077198102219499</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.09968837344924915</v>
@@ -1411,7 +1411,7 @@
         <v>-0.115289335065483</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2067357101650305</v>
+        <v>0.2067357101650308</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.33459610587139</v>
+        <v>-0.2987457826964425</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4075718840038486</v>
+        <v>-0.4122112546393075</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1697826747782513</v>
+        <v>-0.1523274808647332</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.01235731190143017</v>
+        <v>0.03042511199143782</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2703685762345832</v>
+        <v>-0.2505590110873246</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01680761249781506</v>
+        <v>0.03365937111438119</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0655385791759345</v>
+        <v>-0.0678029295747931</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2643631245503709</v>
+        <v>-0.2595584215585904</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.02424718936294447</v>
+        <v>0.01221680504860802</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.04561671028262071</v>
+        <v>0.07294677003436568</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.07292433701428408</v>
+        <v>-0.06244544589955606</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3263534140764274</v>
+        <v>0.3359101347903592</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7072624829291846</v>
+        <v>0.7228927538718151</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2854263597813079</v>
+        <v>0.3337637681538263</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7274501030659141</v>
+        <v>0.7200549079207847</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3256995993910498</v>
+        <v>0.2859295001267679</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.05057585070530037</v>
+        <v>0.06034683888280305</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4539893205927614</v>
+        <v>0.4421819162071953</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.007240622249894</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-4.080249567775596</v>
+        <v>-4.080249567775585</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>6.643478436520586</v>
@@ -1520,7 +1520,7 @@
         <v>9.487431970463883</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>10.68202594458468</v>
+        <v>10.68202594458467</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-26.7205305732422</v>
+        <v>-26.62615662121956</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-15.00220506579021</v>
+        <v>-15.71277887844018</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-18.62345077642469</v>
+        <v>-18.82159441065303</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.006537845456007</v>
+        <v>-3.012091064830385</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.028423182615755</v>
+        <v>3.287929088481481</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.815955046585914</v>
+        <v>8.642158174179185</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-8.131997333055104</v>
+        <v>-7.389645759582534</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.18367098198476</v>
+        <v>0.8993612729488617</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.180970609519287</v>
+        <v>2.237277692300344</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.1288453344898122</v>
+        <v>1.299643209296444</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.04963127762385</v>
+        <v>12.50980489736177</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11.33365638381634</v>
+        <v>11.92356447640973</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.22831259796696</v>
+        <v>16.59118776804711</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>23.77115567774864</v>
+        <v>22.80174813313709</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>26.79425733137126</v>
+        <v>27.30273220165324</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.088461861974523</v>
+        <v>8.304018861460341</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>17.95926529766711</v>
+        <v>18.05860560203681</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>18.95296272221124</v>
+        <v>19.35086388684946</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.01929045857876283</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.07814407356047076</v>
+        <v>-0.07814407356047055</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.298930820806849</v>
@@ -1625,7 +1625,7 @@
         <v>0.288526951654967</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3248563355063079</v>
+        <v>0.3248563355063077</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4467135659591981</v>
+        <v>-0.4498754341390391</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2480170767167239</v>
+        <v>-0.2530533872344898</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3140658768652547</v>
+        <v>-0.3199822053485107</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1151778852394374</v>
+        <v>-0.1147856488004612</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1438856988809621</v>
+        <v>0.1062005487193723</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.309548983263054</v>
+        <v>0.306921196713906</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2145000071592807</v>
+        <v>-0.2013172431424101</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.02568471620753838</v>
+        <v>0.02021370565718796</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.05385326207899844</v>
+        <v>0.06554096280213123</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.004352302418192273</v>
+        <v>0.02803022058859189</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2990141788312097</v>
+        <v>0.2892864451707842</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2546432593660309</v>
+        <v>0.2768653728483998</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.9546270967623341</v>
+        <v>0.9494492933521447</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.381102247774542</v>
+        <v>1.352610011493005</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.530974288859621</v>
+        <v>1.61034073056143</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2834631087117684</v>
+        <v>0.2870555471907906</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6465114809934511</v>
+        <v>0.6388377093842252</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6535314139249646</v>
+        <v>0.7140624114260056</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-8.069734916078596</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3.165075705830567</v>
+        <v>3.165075705830556</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>2.413713376051213</v>
@@ -1734,7 +1734,7 @@
         <v>-1.905716908306143</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>9.305274985280111</v>
+        <v>9.305274985280121</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-19.21213292057969</v>
+        <v>-19.30572778723705</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-19.67142025820275</v>
+        <v>-19.94770411695466</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.392798676327203</v>
+        <v>-7.785874490586742</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-6.56187489201174</v>
+        <v>-6.226839371330956</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-9.862366684292374</v>
+        <v>-10.33424155804081</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.191942077898095</v>
+        <v>2.956593278085724</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-8.818884770265271</v>
+        <v>-7.833424624607656</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-9.262195448027445</v>
+        <v>-9.9473019533881</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>2.227161748862772</v>
+        <v>2.249367725603878</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.90778045793671</v>
+        <v>4.547560305003437</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.232080765036379</v>
+        <v>5.349252938473994</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14.85990444191671</v>
+        <v>14.92685350316644</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.24324726593828</v>
+        <v>10.77284400343757</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.700940936954669</v>
+        <v>8.216539879877365</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>17.4354174047363</v>
+        <v>19.11693996086223</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.053869261149107</v>
+        <v>6.906848690442087</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.273172164509953</v>
+        <v>4.518622009927662</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>16.41169705142347</v>
+        <v>16.27038059491325</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.1451882727134292</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.05694510160689174</v>
+        <v>0.05694510160689155</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.09919963959689912</v>
@@ -1830,7 +1830,7 @@
         <v>-0.05619042617740229</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4281792515487142</v>
+        <v>0.4281792515487144</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.01119288917142292</v>
@@ -1839,7 +1839,7 @@
         <v>-0.0531854403404829</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.2596949974176854</v>
+        <v>0.2596949974176856</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3073909560730977</v>
+        <v>-0.3153710434282704</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3202396873971036</v>
+        <v>-0.3184367789492071</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1376726412457817</v>
+        <v>-0.1234634344766043</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2335611638559455</v>
+        <v>-0.2128792206215356</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3466024027386814</v>
+        <v>-0.369593690294472</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04277680815938983</v>
+        <v>0.09383877801769722</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2195986437934799</v>
+        <v>-0.196712235015556</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2370020396094332</v>
+        <v>-0.2452872929123177</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.05739588472148048</v>
+        <v>0.05661266013418063</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.08110153787770123</v>
+        <v>0.08680282758033402</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.0669851590076706</v>
+        <v>0.1116105915778961</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3076818428674576</v>
+        <v>0.3064755874193424</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5617183000147549</v>
+        <v>0.5442465558151787</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3678118356093522</v>
+        <v>0.4062572450899061</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9140446283068974</v>
+        <v>1.026703912630525</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1851557291958292</v>
+        <v>0.2167167767684764</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1618517619532925</v>
+        <v>0.1365177681112428</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.5385401800769766</v>
+        <v>0.5155073846015407</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>12.41496022116175</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>16.94079642015994</v>
+        <v>16.94079642015996</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-0.710355246515465</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-17.01026830969147</v>
+        <v>-16.96720909387615</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.230354274652536</v>
+        <v>-7.070822752319848</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-3.304243371264452</v>
+        <v>-2.342180479475596</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.099626317606063</v>
+        <v>-2.551416193053965</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>5.995957362820264</v>
+        <v>6.047916225724612</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>11.02125761581574</v>
+        <v>10.85783862671141</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-5.5398306381692</v>
+        <v>-5.002719282827636</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>3.32269341431518</v>
+        <v>3.635304654678942</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>8.87242516460403</v>
+        <v>8.823054220786119</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-1.965971341450165</v>
+        <v>-0.4835113723726243</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>9.485526527131627</v>
+        <v>9.894763169325696</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>14.67232105249415</v>
+        <v>15.10495183350189</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9.744946606090791</v>
+        <v>9.76784765073694</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>18.92713846576236</v>
+        <v>19.18573162541469</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>22.76236301989886</v>
+        <v>23.45454222056139</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.097897055381805</v>
+        <v>4.371317688143003</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>13.96985533040797</v>
+        <v>14.40195690417461</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>19.40006382099502</v>
+        <v>19.1929882622761</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.4766486276278568</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.6504094431835832</v>
+        <v>0.6504094431835837</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.01994289030183199</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3101445280936236</v>
+        <v>-0.3088721262879383</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.131522115883229</v>
+        <v>-0.1290143100599334</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.0592178201276505</v>
+        <v>-0.04192467315994763</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.07736288115112322</v>
+        <v>-0.09021143123472095</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2097033377363143</v>
+        <v>0.2001143141850208</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3792529100119911</v>
+        <v>0.3725361359857801</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1446954619424609</v>
+        <v>-0.1318838629761803</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.08410971972399367</v>
+        <v>0.09479974281641088</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2313400005172542</v>
+        <v>0.2331201994861473</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.04267999992263552</v>
+        <v>-0.0117907566021122</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2037326777500902</v>
+        <v>0.2138967668030278</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3115045369555273</v>
+        <v>0.3108595057231896</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4129859080936727</v>
+        <v>0.4264731553426531</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.8231897697617395</v>
+        <v>0.82640537679565</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9940324555778102</v>
+        <v>1.029839266663236</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1237510601294694</v>
+        <v>0.1327167768387462</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4195173838814478</v>
+        <v>0.432523529516194</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.5815800175737521</v>
+        <v>0.5784773580633661</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-13.55310873004224</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4.340176879999957</v>
+        <v>4.340176879999968</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>3.946706758395521</v>
@@ -2162,7 +2162,7 @@
         <v>2.3156018470746</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>13.39566030057813</v>
+        <v>13.39566030057812</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-21.96695809055123</v>
+        <v>-21.57155914688803</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-20.70192977853159</v>
+        <v>-21.60742961464099</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.83379858666771</v>
+        <v>-4.022213324425333</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.583522053984798</v>
+        <v>-1.585868515843885</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.118856999220519</v>
+        <v>2.61030774230598</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>9.253791352074506</v>
+        <v>9.690772436724474</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-4.868695789375549</v>
+        <v>-5.233200296613702</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.961088393959947</v>
+        <v>-2.137035893879228</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>8.384367334197337</v>
+        <v>8.354364175087156</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-7.19326974877396</v>
+        <v>-6.928681688717248</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-6.407099134400654</v>
+        <v>-6.064278494012282</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>11.95913482420093</v>
+        <v>11.90072084666577</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>8.994048648219893</v>
+        <v>8.833884689861979</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>13.93977817506542</v>
+        <v>13.81669466031146</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>20.73581229839328</v>
+        <v>20.26823328811511</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.253664710700712</v>
+        <v>4.426775582208241</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>6.351256108423545</v>
+        <v>7.59791960194289</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>18.01992255793495</v>
+        <v>18.01403420830454</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.2201803506834512</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.070509407583246</v>
+        <v>0.07050940758324617</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.1665714844818585</v>
@@ -2258,7 +2258,7 @@
         <v>0.3253577567431722</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.6508522113055919</v>
+        <v>0.6508522113055917</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.01010924455828464</v>
@@ -2267,7 +2267,7 @@
         <v>0.06367564115469339</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.3683609336412426</v>
+        <v>0.3683609336412422</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.3431285787963099</v>
+        <v>-0.3362422440563618</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3182825989164889</v>
+        <v>-0.3254792926642074</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.07204857163004898</v>
+        <v>-0.06047249556726194</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.06485238707053827</v>
+        <v>-0.05895618464267201</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.07960101235724147</v>
+        <v>0.09387755918521386</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3429616937607592</v>
+        <v>0.3561486195851141</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.1221643582648272</v>
+        <v>-0.1364784423072797</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.07298961212745322</v>
+        <v>-0.05485326304347844</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.2101246991851038</v>
+        <v>0.2162770689423796</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.1236065971531971</v>
+        <v>-0.1215138694398746</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.1156512571911781</v>
+        <v>-0.1053356939955863</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2090637071789514</v>
+        <v>0.2070051175356845</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.4218936893069186</v>
+        <v>0.410676913457927</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.6517629646729903</v>
+        <v>0.6725791330695057</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.9874290745280451</v>
+        <v>0.9740950007769417</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1292080810916832</v>
+        <v>0.1280894013390906</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1891381468514996</v>
+        <v>0.2232976429216213</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.5285734498993626</v>
+        <v>0.5327772852495379</v>
       </c>
     </row>
     <row r="52">
@@ -2376,7 +2376,7 @@
         <v>1.716372662009247</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>8.898270801375208</v>
+        <v>8.898270801375219</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-13.81609351277365</v>
+        <v>-14.06158419699383</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-11.76503192607882</v>
+        <v>-11.37477340905357</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-3.244736130209199</v>
+        <v>-3.163406476370854</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.68369144764062</v>
+        <v>1.853541421091355</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>2.93584930681942</v>
+        <v>2.553715753824259</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>9.724106113670841</v>
+        <v>9.766652332429585</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-2.171315363012059</v>
+        <v>-2.245717337791451</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-0.3918920595811891</v>
+        <v>-0.5049235151887937</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>6.733211911880911</v>
+        <v>6.823157814910322</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-6.930511136206152</v>
+        <v>-7.130845625379442</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-4.585571430693498</v>
+        <v>-4.551429028532269</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>4.327044796932399</v>
+        <v>4.368863273901816</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>6.982277414729235</v>
+        <v>6.874051181730362</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>8.046101548182815</v>
+        <v>7.991953612690196</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>14.69199125186019</v>
+        <v>14.67271255430543</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.107647536016503</v>
+        <v>1.988005855186842</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>4.043679754892516</v>
+        <v>3.892512093833245</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>10.87916349913714</v>
+        <v>11.21590007510061</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.2251458134073246</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.4957623214822283</v>
+        <v>0.4957623214822285</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>-0.00108367206800437</v>
@@ -2481,7 +2481,7 @@
         <v>0.04819391244882102</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.2498539468959841</v>
+        <v>0.2498539468959844</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.24769870892132</v>
+        <v>-0.2471678079782872</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.207541012415441</v>
+        <v>-0.2017446061175862</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.05784186881272262</v>
+        <v>-0.05577210722363143</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.0636618427183239</v>
+        <v>0.07366884768925001</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1157389114571196</v>
+        <v>0.09975886905076385</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3777088452967291</v>
+        <v>0.3732117827873704</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.05875224452536956</v>
+        <v>-0.06175843734886349</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.01092582831594613</v>
+        <v>-0.01360115624065132</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.184634413417668</v>
+        <v>0.1855363984327948</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.1355371675064916</v>
+        <v>-0.1328181059250789</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.08734507117376338</v>
+        <v>-0.08610360998123907</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.08284625849344933</v>
+        <v>0.08322209451155983</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.296715720544915</v>
+        <v>0.2944766894140776</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.3442761625493007</v>
+        <v>0.3417557523290339</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.6328899067957401</v>
+        <v>0.6257741573093494</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.0606236080197254</v>
+        <v>0.05795705916815741</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.1187641579028637</v>
+        <v>0.1124216342939077</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.3179737320811191</v>
+        <v>0.327235895931056</v>
       </c>
     </row>
     <row r="58">
